--- a/DEWSapp/dewsdocs/DATAspeiSynoptic1.xlsx
+++ b/DEWSapp/dewsdocs/DATAspeiSynoptic1.xlsx
@@ -2104,7 +2104,7 @@
         <v>2020</v>
       </c>
       <c r="B41" t="n">
-        <v>0.481067036914929</v>
+        <v>0.38</v>
       </c>
       <c r="C41" t="n">
         <v>0.7481891717013662</v>
